--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H2">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I2">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J2">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.474188100048</v>
+        <v>3.783750096964333</v>
       </c>
       <c r="R2">
-        <v>4.267692900431999</v>
+        <v>34.053750872679</v>
       </c>
       <c r="S2">
-        <v>8.303260165505331E-06</v>
+        <v>6.758306526758323E-05</v>
       </c>
       <c r="T2">
-        <v>8.375015858143487E-06</v>
+        <v>6.800872322781741E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H3">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I3">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J3">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.083826116568</v>
+        <v>0.2276242355813333</v>
       </c>
       <c r="R3">
-        <v>0.754435049112</v>
+        <v>2.048618120232</v>
       </c>
       <c r="S3">
-        <v>1.467835347318131E-06</v>
+        <v>4.065686997172213E-06</v>
       </c>
       <c r="T3">
-        <v>1.480520189166534E-06</v>
+        <v>4.091293885929257E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H4">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I4">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J4">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>217.796557969971</v>
+        <v>922.6516363560671</v>
       </c>
       <c r="R4">
-        <v>1960.169021729739</v>
+        <v>8303.864727204604</v>
       </c>
       <c r="S4">
-        <v>0.003813721777904538</v>
+        <v>0.01647984781265599</v>
       </c>
       <c r="T4">
-        <v>0.003846679464674322</v>
+        <v>0.01658364272602861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H5">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I5">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J5">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.6054850891980001</v>
+        <v>9.489637329243667</v>
       </c>
       <c r="R5">
-        <v>3.632910535188</v>
+        <v>56.937823975462</v>
       </c>
       <c r="S5">
-        <v>1.06023331699726E-05</v>
+        <v>0.0001694981863370176</v>
       </c>
       <c r="T5">
-        <v>7.129304768001509E-06</v>
+        <v>0.0001137104904073303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H6">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I6">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J6">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>237.237109398504</v>
+        <v>526.1584305239047</v>
       </c>
       <c r="R6">
-        <v>2135.133984586536</v>
+        <v>4735.425874715142</v>
       </c>
       <c r="S6">
-        <v>0.004154135120743922</v>
+        <v>0.00939792497916688</v>
       </c>
       <c r="T6">
-        <v>0.004190034615274974</v>
+        <v>0.009457115866132831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>429.64891</v>
       </c>
       <c r="I7">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J7">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>16.87049862252444</v>
+        <v>49.57475304774334</v>
       </c>
       <c r="R7">
-        <v>151.83448760272</v>
+        <v>446.17277742969</v>
       </c>
       <c r="S7">
-        <v>0.0002954104904160186</v>
+        <v>0.0008854743799116024</v>
       </c>
       <c r="T7">
-        <v>0.0002979633893894171</v>
+        <v>0.0008910513571750707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>429.64891</v>
       </c>
       <c r="I8">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J8">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
         <v>2.982336300613333</v>
@@ -948,10 +948,10 @@
         <v>26.84102670552</v>
       </c>
       <c r="S8">
-        <v>5.222213337390071E-05</v>
+        <v>5.32686947311715E-05</v>
       </c>
       <c r="T8">
-        <v>5.267343024724856E-05</v>
+        <v>5.360419658883116E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>429.64891</v>
       </c>
       <c r="I9">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J9">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>7748.689878238244</v>
+        <v>12088.59619406294</v>
       </c>
       <c r="R9">
-        <v>69738.20890414419</v>
+        <v>108797.3657465664</v>
       </c>
       <c r="S9">
-        <v>0.1356832615460346</v>
+        <v>0.2159192242194517</v>
       </c>
       <c r="T9">
-        <v>0.136855818616098</v>
+        <v>0.2172791468005407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>429.64891</v>
       </c>
       <c r="I10">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J10">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>21.54173704958</v>
+        <v>124.3333769551367</v>
       </c>
       <c r="R10">
-        <v>129.25042229748</v>
+        <v>746.0002617308201</v>
       </c>
       <c r="S10">
-        <v>0.0003772061068623656</v>
+        <v>0.002220767892794913</v>
       </c>
       <c r="T10">
-        <v>0.0002536439152647473</v>
+        <v>0.00148983662673807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>429.64891</v>
       </c>
       <c r="I11">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J11">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>8440.339027727618</v>
+        <v>6893.735999673414</v>
       </c>
       <c r="R11">
-        <v>75963.05124954856</v>
+        <v>62043.62399706072</v>
       </c>
       <c r="S11">
-        <v>0.1477943685748264</v>
+        <v>0.1231317603076386</v>
       </c>
       <c r="T11">
-        <v>0.149071588254051</v>
+        <v>0.1239072802359679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H12">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I12">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J12">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>10.09763594583467</v>
+        <v>54.41142822473066</v>
       </c>
       <c r="R12">
-        <v>90.87872351251201</v>
+        <v>489.702854022576</v>
       </c>
       <c r="S12">
-        <v>0.0001768144293505819</v>
+        <v>0.0009718641587785219</v>
       </c>
       <c r="T12">
-        <v>0.000178342436614425</v>
+        <v>0.0009779852441985527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H13">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I13">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J13">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>1.785041859488</v>
+        <v>3.273302791978666</v>
       </c>
       <c r="R13">
-        <v>16.065376735392</v>
+        <v>29.459725127808</v>
       </c>
       <c r="S13">
-        <v>3.12569357268686E-05</v>
+        <v>5.846576294992081E-05</v>
       </c>
       <c r="T13">
-        <v>3.152705409340438E-05</v>
+        <v>5.883399746698906E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H14">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I14">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J14">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>4637.886004338837</v>
+        <v>13267.99920753109</v>
       </c>
       <c r="R14">
-        <v>41740.97403904954</v>
+        <v>119411.9928677798</v>
       </c>
       <c r="S14">
-        <v>0.08121159959113945</v>
+        <v>0.2369850104879346</v>
       </c>
       <c r="T14">
-        <v>0.08191341965491679</v>
+        <v>0.2384776115673763</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H15">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I15">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J15">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>12.893550050568</v>
+        <v>136.4637481828213</v>
       </c>
       <c r="R15">
-        <v>77.36130030340802</v>
+        <v>818.782489096928</v>
       </c>
       <c r="S15">
-        <v>0.0002257722210152332</v>
+        <v>0.002437433277503684</v>
       </c>
       <c r="T15">
-        <v>0.0001518155434244246</v>
+        <v>0.001635189964623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H16">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I16">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J16">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>5051.864362065931</v>
+        <v>7566.311448596242</v>
       </c>
       <c r="R16">
-        <v>45466.77925859338</v>
+        <v>68096.80303736619</v>
       </c>
       <c r="S16">
-        <v>0.08846055840463297</v>
+        <v>0.1351448978820237</v>
       </c>
       <c r="T16">
-        <v>0.08922502302611413</v>
+        <v>0.1359960800730172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H17">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I17">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J17">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>1.447634576509333</v>
+        <v>1.783850677927</v>
       </c>
       <c r="R17">
-        <v>8.685807459056001</v>
+        <v>10.703104067562</v>
       </c>
       <c r="S17">
-        <v>2.534877301248468E-05</v>
+        <v>3.186206639034794E-05</v>
       </c>
       <c r="T17">
-        <v>1.704522253768809E-05</v>
+        <v>2.137516201756623E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H18">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I18">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J18">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>0.255910227916</v>
+        <v>0.107313547816</v>
       </c>
       <c r="R18">
-        <v>1.535461367496</v>
+        <v>0.643881286896</v>
       </c>
       <c r="S18">
-        <v>4.481110346685672E-06</v>
+        <v>1.916769955807419E-06</v>
       </c>
       <c r="T18">
-        <v>3.013223679014949E-06</v>
+        <v>1.285894889987373E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H19">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I19">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J19">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>664.9045556607896</v>
+        <v>434.9845272087853</v>
       </c>
       <c r="R19">
-        <v>3989.427333964737</v>
+        <v>2609.907163252712</v>
       </c>
       <c r="S19">
-        <v>0.01164279641417067</v>
+        <v>0.007769431632476357</v>
       </c>
       <c r="T19">
-        <v>0.007828941296006484</v>
+        <v>0.005212243860583226</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H20">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I20">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J20">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>1.848467202351</v>
+        <v>4.473893769209</v>
       </c>
       <c r="R20">
-        <v>7.393868809404002</v>
+        <v>17.895575076836</v>
       </c>
       <c r="S20">
-        <v>3.236754378055987E-05</v>
+        <v>7.990999586554776E-05</v>
       </c>
       <c r="T20">
-        <v>1.450989327876023E-05</v>
+        <v>3.57392410884053E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H21">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I21">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J21">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>724.2540299126814</v>
+        <v>248.0576277328923</v>
       </c>
       <c r="R21">
-        <v>4345.524179476089</v>
+        <v>1488.345766397354</v>
       </c>
       <c r="S21">
-        <v>0.01268203406131857</v>
+        <v>0.004430655940688028</v>
       </c>
       <c r="T21">
-        <v>0.008527753698344654</v>
+        <v>0.002972374340572852</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H22">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I22">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J22">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N22">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O22">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P22">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q22">
-        <v>30.47088747504533</v>
+        <v>35.31247337271733</v>
       </c>
       <c r="R22">
-        <v>274.237987275408</v>
+        <v>317.812260354456</v>
       </c>
       <c r="S22">
-        <v>0.0005335597965312253</v>
+        <v>0.0006307301305714764</v>
       </c>
       <c r="T22">
-        <v>0.0005381707507830293</v>
+        <v>0.0006347026538622493</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H23">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I23">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J23">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.062472</v>
       </c>
       <c r="O23">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P23">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q23">
-        <v>5.386588497591999</v>
+        <v>2.124340813205333</v>
       </c>
       <c r="R23">
-        <v>48.479296478328</v>
+        <v>19.119067318848</v>
       </c>
       <c r="S23">
-        <v>9.432173792530308E-05</v>
+        <v>3.794369610842727E-05</v>
       </c>
       <c r="T23">
-        <v>9.513685409663324E-05</v>
+        <v>3.818267663151115E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H24">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I24">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J24">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N24">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O24">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P24">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q24">
-        <v>13995.4047975548</v>
+        <v>8610.798944480295</v>
       </c>
       <c r="R24">
-        <v>125958.6431779932</v>
+        <v>77497.19050032266</v>
       </c>
       <c r="S24">
-        <v>0.2450662240235379</v>
+        <v>0.1538009044354533</v>
       </c>
       <c r="T24">
-        <v>0.2471840544054017</v>
+        <v>0.1547695876256129</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H25">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I25">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J25">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N25">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O25">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P25">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q25">
-        <v>38.907910213062</v>
+        <v>88.56360936059468</v>
       </c>
       <c r="R25">
-        <v>233.447461278372</v>
+        <v>531.3816561635681</v>
       </c>
       <c r="S25">
-        <v>0.0006812960952889234</v>
+        <v>0.00158186984826293</v>
       </c>
       <c r="T25">
-        <v>0.000458122511592105</v>
+        <v>0.001061221952244943</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H26">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I26">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J26">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N26">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O26">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P26">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q26">
-        <v>15244.63660023331</v>
+        <v>4910.460546168905</v>
       </c>
       <c r="R26">
-        <v>137201.7294020998</v>
+        <v>44194.14491552015</v>
       </c>
       <c r="S26">
-        <v>0.2669408696833782</v>
+        <v>0.0877076886900847</v>
       </c>
       <c r="T26">
-        <v>0.2692477379033019</v>
+        <v>0.08826009742912104</v>
       </c>
     </row>
   </sheetData>
